--- a/LCAPI/lc_resource/media_data.xlsx
+++ b/LCAPI/lc_resource/media_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PXQ\Desktop\LC\LCAPI\lc_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CCFF9C-C791-4128-96A8-C24FEAF7CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41BE3BC-0D43-41B2-87C6-CEF6F37785D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20280" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
